--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>934229.6674031647</v>
+        <v>931850.7431981608</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>24.62149822509235</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>197.6043264768102</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>87.75863752449726</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>61.36917500887013</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>311.6774819057697</v>
+        <v>407.8895948559958</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>155.559894540049</v>
+        <v>121.8713578254458</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>281.8953352974212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778467</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>117.7126336312586</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>148.3139136866274</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819412</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>104.0942093908458</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>101.3201461918058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.713266813875332e-12</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229352</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.066822996370263</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>216.6856552554188</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>37.11414892142423</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>276.1882395731317</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098626</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>69.63630425292821</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.7057096618236</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.32649042089859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229297</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.17139158339506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046955</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229322</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.79222725775265</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272894</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>73.78331078915255</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>112.6849016609934</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1771.429619686767</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1402.467102746355</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1402.467102746355</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1016.678850148111</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>605.6929453585033</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4361,19 +4361,19 @@
         <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923658</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2161.568951662578</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1771.429619686767</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879448</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600379</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477022</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>420.1857186477022</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.132475219474</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.169958279063</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>1131.904259672312</v>
+        <v>1210.836060705128</v>
       </c>
       <c r="E5" t="n">
-        <v>1131.904259672312</v>
+        <v>825.0478081068841</v>
       </c>
       <c r="F5" t="n">
-        <v>720.9183548827048</v>
+        <v>818.1023073576806</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259408</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283596</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877106</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>541.9891837816004</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V7" t="n">
-        <v>287.3046955757135</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>287.3046955757135</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>287.3046955757135</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2244.121949002409</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1875.159432061997</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1516.893733455247</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,22 +4802,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4838,16 +4838,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066531</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2630.721789066531</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>681.244514548816</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>681.244514548816</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>681.244514548816</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="V10" t="n">
-        <v>681.244514548816</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="W10" t="n">
-        <v>391.8273445118554</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="X10" t="n">
-        <v>163.8377936138381</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>185.4137665647679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5057,10 +5057,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>429.9489452609988</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="C13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797186</v>
@@ -5200,13 +5200,13 @@
         <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629333</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936167</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
@@ -5218,31 +5218,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309952</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964857</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T13" t="n">
-        <v>1257.700706964857</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U13" t="n">
-        <v>968.6254803090544</v>
+        <v>865.9078721888415</v>
       </c>
       <c r="V13" t="n">
-        <v>713.9409921031676</v>
+        <v>611.2233839829546</v>
       </c>
       <c r="W13" t="n">
-        <v>611.5974100912425</v>
+        <v>321.8062139459939</v>
       </c>
       <c r="X13" t="n">
-        <v>611.5974100912425</v>
+        <v>93.81666304797662</v>
       </c>
       <c r="Y13" t="n">
-        <v>611.5974100912425</v>
+        <v>93.81666304797186</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.0510158879459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C16" t="n">
-        <v>416.0510158879459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>416.0510158879459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>416.0510158879459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>269.1610683900316</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>101.9649691049115</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131321</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629333</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936167</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
@@ -5455,31 +5455,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309952</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1373.509837562355</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T16" t="n">
-        <v>1153.908372585296</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U16" t="n">
-        <v>864.8331459294934</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V16" t="n">
-        <v>864.8331459294934</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W16" t="n">
-        <v>864.8331459294934</v>
+        <v>275.4651278782115</v>
       </c>
       <c r="X16" t="n">
-        <v>636.8435950314761</v>
+        <v>275.4651278782115</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.0510158879459</v>
+        <v>275.4651278782115</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5531,34 +5531,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.729756630365</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C19" t="n">
-        <v>241.729756630365</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>140.7528025687996</v>
@@ -5695,28 +5695,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309953</v>
+        <v>1403.066501995383</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309953</v>
+        <v>1220.211667650287</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>1000.610202673229</v>
       </c>
       <c r="U19" t="n">
-        <v>1161.577521539113</v>
+        <v>711.5349760174263</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.577521539113</v>
+        <v>711.5349760174263</v>
       </c>
       <c r="W19" t="n">
-        <v>872.1603515021521</v>
+        <v>711.5349760174263</v>
       </c>
       <c r="X19" t="n">
-        <v>644.1708006041348</v>
+        <v>483.5454251194089</v>
       </c>
       <c r="Y19" t="n">
-        <v>423.3782214606047</v>
+        <v>262.7528459758788</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>702.4944101284077</v>
+        <v>462.1860973082847</v>
       </c>
       <c r="C22" t="n">
-        <v>533.5582272005026</v>
+        <v>462.1860973082847</v>
       </c>
       <c r="D22" t="n">
-        <v>383.4415877881669</v>
+        <v>312.069457895949</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>164.1563643135559</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>164.1563643135559</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731431</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391439</v>
+        <v>1546.846905391433</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100424</v>
+        <v>1916.376186100418</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673983</v>
+        <v>2209.051641673977</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400882</v>
+        <v>2328.249876400876</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400882</v>
+        <v>2328.249876400876</v>
       </c>
       <c r="S22" t="n">
-        <v>2328.249876400882</v>
+        <v>2145.39504205578</v>
       </c>
       <c r="T22" t="n">
-        <v>2108.648411423823</v>
+        <v>1925.793577078722</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.573184768021</v>
+        <v>1636.718350422919</v>
       </c>
       <c r="V22" t="n">
-        <v>1564.888696562134</v>
+        <v>1382.033862217032</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.471526525173</v>
+        <v>1092.616692180072</v>
       </c>
       <c r="X22" t="n">
-        <v>1047.481975627156</v>
+        <v>864.6271412820546</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.1428749586474</v>
+        <v>643.8345621385245</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.6725264685165</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406096</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282738</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458807</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784072</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780505003</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381646</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557714</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.10905366816</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>922.1728707402528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>772.0562313279171</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>624.143137745524</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>477.2531902476136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0570909624935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>168.3452598046916</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1272.757518498399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>734.6461798836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>584.5295404712642</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>436.6164468888711</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>289.7264993909607</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G40" t="n">
-        <v>289.7264993909607</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138397</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138397</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,16 +7546,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9405071576781</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>219.0505596597677</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9565,10 +9565,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042522481</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>51.90538636023484</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>182.0902649983983</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>185.2028521447852</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>132.2278898498536</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>69.83734308117218</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>29.26109778869746</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272928</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>9.996234816112462</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>95.88783403934063</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.87894369027121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5054897610387</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>146.8157004124957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>129.6605885985422</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409393233</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.0397529241847</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459422</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>7.482525529412982</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>27.60981118523047</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>41.54258064659093</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>61.40075786968296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939881.2277827967</v>
+        <v>939881.2277827966</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>978103.0862662321</v>
+        <v>978103.0862662316</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>983214.5747883031</v>
+        <v>983214.5747883032</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.973425356</v>
-      </c>
       <c r="E2" t="n">
+        <v>430778.896067115</v>
+      </c>
+      <c r="F2" t="n">
         <v>430778.8960671149</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>430778.8960671148</v>
       </c>
-      <c r="G2" t="n">
-        <v>430778.896067115</v>
-      </c>
       <c r="H2" t="n">
-        <v>442379.2856380832</v>
+        <v>442379.2856380833</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
@@ -26338,22 +26338,22 @@
         <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="L2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="M2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="N2" t="n">
         <v>443930.6298295033</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>443930.6298295033</v>
       </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="O2" t="n">
-        <v>443930.6298295034</v>
-      </c>
-      <c r="P2" t="n">
-        <v>443930.6298295036</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551159</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
-        <v>761.388208683545</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
         <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>13705.58560400945</v>
+        <v>13705.58560400937</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687966</v>
@@ -26442,7 +26442,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26451,7 +26451,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1078702.456967682</v>
+        <v>-1078702.456967683</v>
       </c>
       <c r="C6" t="n">
-        <v>250042.2887599101</v>
+        <v>250042.2887599102</v>
       </c>
       <c r="D6" t="n">
-        <v>250042.2887599102</v>
+        <v>250042.28875991</v>
       </c>
       <c r="E6" t="n">
-        <v>3482.516227169079</v>
+        <v>3387.997693722587</v>
       </c>
       <c r="F6" t="n">
-        <v>328894.9780345242</v>
+        <v>328800.4595010777</v>
       </c>
       <c r="G6" t="n">
-        <v>328894.9780345241</v>
+        <v>328800.4595010777</v>
       </c>
       <c r="H6" t="n">
-        <v>327551.1702101665</v>
+        <v>327509.3807202246</v>
       </c>
       <c r="I6" t="n">
-        <v>327371.4599987165</v>
+        <v>327336.722073281</v>
       </c>
       <c r="J6" t="n">
-        <v>109840.2576014392</v>
+        <v>109805.5196760035</v>
       </c>
       <c r="K6" t="n">
-        <v>327371.4599987165</v>
+        <v>327336.7220732807</v>
       </c>
       <c r="L6" t="n">
-        <v>327371.4599987165</v>
+        <v>327336.722073281</v>
       </c>
       <c r="M6" t="n">
-        <v>242316.4320632051</v>
+        <v>242281.6941377691</v>
       </c>
       <c r="N6" t="n">
-        <v>327371.4599987167</v>
+        <v>327336.7220732808</v>
       </c>
       <c r="O6" t="n">
-        <v>327371.4599987165</v>
+        <v>327336.7220732808</v>
       </c>
       <c r="P6" t="n">
-        <v>327371.4599987167</v>
+        <v>327336.7220732808</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>358.1123434383882</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>213.3173991766432</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>57.66241049843399</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2154783432247</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>99.24424374768375</v>
+        <v>3.032130797457683</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>130.6519436655639</v>
+        <v>164.340480380167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>100.0350347748406</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228816</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>49.53418746736921</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>41.45511164481445</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-2.963669221321619e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-2.775138548766605e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338212</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394704</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
         <v>157.5888220649824</v>
@@ -35574,19 +35574,19 @@
         <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194022999</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
         <v>157.5888220649824</v>
@@ -35811,19 +35811,19 @@
         <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915994</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
         <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>210.2202333401628</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
         <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214687</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168243</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>301.7138025056805</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
